--- a/Dictionaries/EXRACT12.xlsx
+++ b/Dictionaries/EXRACT12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2523d341f1af05b7/Documents/SAN JOSE STATE/Master/CMPE 255/CMPE255 Group Project-20241025T055613Z-001/CMPE255 Group Project/Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{D1FF196B-3BC2-4DF9-BA80-1707EA1E24B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F909A23-AFB9-4FBF-A74A-A055BE500243}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{D1FF196B-3BC2-4DF9-BA80-1707EA1E24B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECDC8C93-EB3F-41A1-ABA6-112AC4E3ED47}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{4AD1F12C-E282-4A01-AADE-3F63154CA8A0}"/>
+    <workbookView xWindow="7545" yWindow="750" windowWidth="21600" windowHeight="11295" xr2:uid="{4AD1F12C-E282-4A01-AADE-3F63154CA8A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>EXRACT12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Value</t>
   </si>
@@ -398,6 +395,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1EFE78-0472-4B5A-A2FC-53D5A5744115}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,281 +732,276 @@
     <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>175131</v>
+      </c>
+      <c r="D2" s="1">
+        <v>53.85</v>
+      </c>
+      <c r="E2" s="9">
+        <v>51.85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>175131</v>
+        <v>19682</v>
       </c>
       <c r="D3" s="1">
-        <v>53.85</v>
+        <v>6.05</v>
       </c>
       <c r="E3" s="9">
-        <v>51.85</v>
+        <v>8.2200000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3">
-        <v>19682</v>
+        <v>25972</v>
       </c>
       <c r="D4" s="1">
-        <v>6.05</v>
+        <v>7.99</v>
       </c>
       <c r="E4" s="9">
-        <v>8.2200000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3">
-        <v>25972</v>
+        <v>13961</v>
       </c>
       <c r="D5" s="1">
-        <v>7.99</v>
+        <v>4.29</v>
       </c>
       <c r="E5" s="9">
-        <v>6.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>13961</v>
+        <v>4501</v>
       </c>
       <c r="D6" s="1">
-        <v>4.29</v>
+        <v>1.38</v>
       </c>
       <c r="E6" s="9">
-        <v>3.95</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3">
-        <v>4501</v>
+        <v>4169</v>
       </c>
       <c r="D7" s="1">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="E7" s="9">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>4169</v>
+        <v>3693</v>
       </c>
       <c r="D8" s="1">
-        <v>1.28</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E8" s="9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3">
-        <v>3693</v>
+        <v>4153</v>
       </c>
       <c r="D9" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="E9" s="9">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3">
-        <v>4153</v>
+        <v>19930</v>
       </c>
       <c r="D10" s="1">
-        <v>1.28</v>
+        <v>6.13</v>
       </c>
       <c r="E10" s="9">
-        <v>1.1100000000000001</v>
+        <v>8.0299999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3">
-        <v>19930</v>
+        <v>5293</v>
       </c>
       <c r="D11" s="1">
-        <v>6.13</v>
+        <v>1.63</v>
       </c>
       <c r="E11" s="9">
-        <v>8.0299999999999994</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3">
-        <v>5293</v>
+        <v>46556</v>
       </c>
       <c r="D12" s="1">
-        <v>1.63</v>
+        <v>14.31</v>
       </c>
       <c r="E12" s="9">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="3">
-        <v>46556</v>
+        <v>1651</v>
       </c>
       <c r="D13" s="1">
-        <v>14.31</v>
+        <v>0.51</v>
       </c>
       <c r="E13" s="9">
-        <v>14.08</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3">
-        <v>1651</v>
+      <c r="C14" s="1">
+        <v>535</v>
       </c>
       <c r="D14" s="1">
-        <v>0.51</v>
+        <v>0.16</v>
       </c>
       <c r="E14" s="9">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>99</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1">
-        <v>535</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="13">
+        <v>108096</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13">
-        <v>108096</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="18"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
